--- a/tests/expected_outputs/PEARS Sites Report 2022-09.xlsx
+++ b/tests/expected_outputs/PEARS Sites Report 2022-09.xlsx
@@ -52,907 +52,907 @@
     <t>setting</t>
   </si>
   <si>
-    <t>York, Webb and Gamble</t>
-  </si>
-  <si>
-    <t>Johns-Webb</t>
-  </si>
-  <si>
-    <t>Harvey Inc</t>
-  </si>
-  <si>
-    <t>Young, Arias and Torres</t>
-  </si>
-  <si>
-    <t>Robinson-Pace</t>
-  </si>
-  <si>
-    <t>Irwin, Adams and Johnson</t>
-  </si>
-  <si>
-    <t>Cruz-Galloway</t>
-  </si>
-  <si>
-    <t>Cox Ltd</t>
-  </si>
-  <si>
-    <t>Wilson-Santos</t>
-  </si>
-  <si>
-    <t>Weeks LLC</t>
-  </si>
-  <si>
-    <t>Krause Inc</t>
-  </si>
-  <si>
-    <t>Guerra Group</t>
-  </si>
-  <si>
-    <t>Wallace, Jenkins and Roberts</t>
-  </si>
-  <si>
-    <t>Alvarez-Butler</t>
-  </si>
-  <si>
-    <t>Cooper Inc</t>
-  </si>
-  <si>
-    <t>Smith-Miller</t>
-  </si>
-  <si>
-    <t>Bright-Santiago</t>
-  </si>
-  <si>
-    <t>Jensen Ltd</t>
-  </si>
-  <si>
-    <t>Johnson, Thompson and Huynh</t>
-  </si>
-  <si>
-    <t>Perry-Hess</t>
-  </si>
-  <si>
-    <t>Garcia Inc</t>
-  </si>
-  <si>
-    <t>Anthony Group</t>
-  </si>
-  <si>
-    <t>French, Schwartz and Wright</t>
-  </si>
-  <si>
-    <t>Walker PLC</t>
-  </si>
-  <si>
-    <t>Burnett PLC</t>
-  </si>
-  <si>
-    <t>Koch Group</t>
-  </si>
-  <si>
-    <t>Aguilar Group</t>
-  </si>
-  <si>
-    <t>Gibson, Henry and Sullivan</t>
-  </si>
-  <si>
-    <t>Trujillo, Smith and Berger</t>
-  </si>
-  <si>
-    <t>Cooper Ltd</t>
-  </si>
-  <si>
-    <t>Williams, Koch and Fritz</t>
-  </si>
-  <si>
-    <t>Rice, Lamb and Fitzgerald</t>
-  </si>
-  <si>
-    <t>Jones-Garcia</t>
-  </si>
-  <si>
-    <t>Walsh, Howe and Moore</t>
-  </si>
-  <si>
-    <t>Collins-Cabrera</t>
-  </si>
-  <si>
-    <t>Castillo, Johnston and Barry</t>
-  </si>
-  <si>
-    <t>Morales, Lawrence and Bradley</t>
-  </si>
-  <si>
-    <t>Mclaughlin, Jimenez and Wilson</t>
-  </si>
-  <si>
-    <t>Nixon PLC</t>
-  </si>
-  <si>
-    <t>Romero, Gutierrez and Farley</t>
-  </si>
-  <si>
-    <t>Sharp Inc</t>
-  </si>
-  <si>
-    <t>Conley Ltd</t>
-  </si>
-  <si>
-    <t>Taylor LLC</t>
+    <t>Harris, Bryant and Carney</t>
+  </si>
+  <si>
+    <t>Williams, Yu and Garcia</t>
+  </si>
+  <si>
+    <t>Flores-Gonzalez</t>
+  </si>
+  <si>
+    <t>Horton, Turner and Smith</t>
+  </si>
+  <si>
+    <t>Stout-Martinez</t>
+  </si>
+  <si>
+    <t>Campos PLC</t>
+  </si>
+  <si>
+    <t>Lucas, Johnson and Miller</t>
+  </si>
+  <si>
+    <t>Smith and Sons</t>
+  </si>
+  <si>
+    <t>Walker, Wilson and Rivera</t>
+  </si>
+  <si>
+    <t>Waller, Morrison and Bray</t>
+  </si>
+  <si>
+    <t>Griffith Group</t>
+  </si>
+  <si>
+    <t>Richardson, Berry and Morris</t>
+  </si>
+  <si>
+    <t>Beltran, Parker and Robinson</t>
+  </si>
+  <si>
+    <t>White-Lane</t>
+  </si>
+  <si>
+    <t>Fowler and Sons</t>
+  </si>
+  <si>
+    <t>Bright PLC</t>
+  </si>
+  <si>
+    <t>Wood, Taylor and Norton</t>
+  </si>
+  <si>
+    <t>Shah-Briggs</t>
+  </si>
+  <si>
+    <t>Smith Inc</t>
   </si>
   <si>
     <t>Lopez PLC</t>
   </si>
   <si>
-    <t>Barnes, King and Blankenship</t>
-  </si>
-  <si>
-    <t>Lopez-Smith</t>
-  </si>
-  <si>
-    <t>Espinoza LLC</t>
-  </si>
-  <si>
-    <t>Montgomery Group</t>
-  </si>
-  <si>
-    <t>Perez PLC</t>
-  </si>
-  <si>
-    <t>Bond Inc</t>
-  </si>
-  <si>
-    <t>Martin LLC</t>
-  </si>
-  <si>
-    <t>Bates-Sanchez</t>
-  </si>
-  <si>
-    <t>Hickman Ltd</t>
-  </si>
-  <si>
-    <t>Jensen-Morris</t>
-  </si>
-  <si>
-    <t>Smith LLC</t>
+    <t>Sims LLC</t>
+  </si>
+  <si>
+    <t>Floyd-Nguyen</t>
+  </si>
+  <si>
+    <t>Ryan Inc</t>
+  </si>
+  <si>
+    <t>Morgan-Velazquez</t>
+  </si>
+  <si>
+    <t>Wright-Lyons</t>
+  </si>
+  <si>
+    <t>Morrow Inc</t>
+  </si>
+  <si>
+    <t>Lee, Mendez and Stanley</t>
+  </si>
+  <si>
+    <t>Bender-Andrews</t>
+  </si>
+  <si>
+    <t>Gray-Berry</t>
+  </si>
+  <si>
+    <t>Parks-Cook</t>
+  </si>
+  <si>
+    <t>Henderson-Hill</t>
+  </si>
+  <si>
+    <t>Jenkins PLC</t>
+  </si>
+  <si>
+    <t>Johnson-Austin</t>
+  </si>
+  <si>
+    <t>Khan, Burns and Henderson</t>
+  </si>
+  <si>
+    <t>Gray-Weber</t>
+  </si>
+  <si>
+    <t>Weber Group</t>
+  </si>
+  <si>
+    <t>Good LLC</t>
+  </si>
+  <si>
+    <t>Tran, Clayton and Meadows</t>
+  </si>
+  <si>
+    <t>Hill, Johnson and Scott</t>
+  </si>
+  <si>
+    <t>Kirk-Moyer</t>
+  </si>
+  <si>
+    <t>Gallegos LLC</t>
+  </si>
+  <si>
+    <t>Page-Hernandez</t>
+  </si>
+  <si>
+    <t>Ochoa, Thomas and Walter</t>
+  </si>
+  <si>
+    <t>Steele, Howell and Walker</t>
+  </si>
+  <si>
+    <t>Rice-Thomas</t>
+  </si>
+  <si>
+    <t>Jordan, Francis and Jenkins</t>
+  </si>
+  <si>
+    <t>Richardson Inc</t>
+  </si>
+  <si>
+    <t>Byrd Group</t>
+  </si>
+  <si>
+    <t>Booker, Hernandez and Adams</t>
+  </si>
+  <si>
+    <t>Curtis-Lewis</t>
+  </si>
+  <si>
+    <t>Reid, Curry and Turner</t>
+  </si>
+  <si>
+    <t>Campbell-Rangel</t>
+  </si>
+  <si>
+    <t>Baldwin Inc</t>
+  </si>
+  <si>
+    <t>Barajas Inc</t>
+  </si>
+  <si>
+    <t>Flores and Sons</t>
+  </si>
+  <si>
+    <t>Galvan and Sons</t>
+  </si>
+  <si>
+    <t>Harrison, Patel and Cain</t>
+  </si>
+  <si>
+    <t>Ford, Perez and Jordan</t>
+  </si>
+  <si>
+    <t>Rosales Ltd</t>
+  </si>
+  <si>
+    <t>Richardson, Wright and Taylor</t>
+  </si>
+  <si>
+    <t>Blevins Inc</t>
+  </si>
+  <si>
+    <t>Garcia, Wallace and Moreno</t>
+  </si>
+  <si>
+    <t>Mays, Andrews and Alvarez</t>
+  </si>
+  <si>
+    <t>Mitchell Ltd</t>
+  </si>
+  <si>
+    <t>Burgess, Jones and Graham</t>
+  </si>
+  <si>
+    <t>Fletcher-Nguyen</t>
+  </si>
+  <si>
+    <t>Bennett LLC</t>
+  </si>
+  <si>
+    <t>Wilson-Baldwin</t>
+  </si>
+  <si>
+    <t>Velasquez, Wilson and Curtis</t>
+  </si>
+  <si>
+    <t>Davies, Nguyen and Adams</t>
+  </si>
+  <si>
+    <t>Adams Inc</t>
+  </si>
+  <si>
+    <t>Davis-Potter</t>
+  </si>
+  <si>
+    <t>Jefferson-Brandt</t>
+  </si>
+  <si>
+    <t>Green PLC</t>
+  </si>
+  <si>
+    <t>Johnson and Sons</t>
+  </si>
+  <si>
+    <t>Fisher-Coleman</t>
+  </si>
+  <si>
+    <t>Brown, Watson and Robbins</t>
+  </si>
+  <si>
+    <t>Adams Group</t>
+  </si>
+  <si>
+    <t>Hernandez PLC</t>
+  </si>
+  <si>
+    <t>White, Lee and Berg</t>
+  </si>
+  <si>
+    <t>Bishop, House and Wells</t>
+  </si>
+  <si>
+    <t>Hayden-Tucker</t>
+  </si>
+  <si>
+    <t>Garcia-Cox</t>
+  </si>
+  <si>
+    <t>Rodriguez, Andrade and Campbell</t>
+  </si>
+  <si>
+    <t>English Inc</t>
+  </si>
+  <si>
+    <t>Wolf, Johnson and Newman</t>
+  </si>
+  <si>
+    <t>Banks-Jones</t>
+  </si>
+  <si>
+    <t>Singh PLC</t>
+  </si>
+  <si>
+    <t>Fields Ltd</t>
+  </si>
+  <si>
+    <t>Proctor, Warren and Parker</t>
+  </si>
+  <si>
+    <t>Mclaughlin PLC</t>
+  </si>
+  <si>
+    <t>Taylor, Dawson and Robinson</t>
+  </si>
+  <si>
+    <t>Mitchell-Mills</t>
+  </si>
+  <si>
+    <t>Woodward-Cortez</t>
+  </si>
+  <si>
+    <t>Salinas Ltd</t>
+  </si>
+  <si>
+    <t>Stephenson-Bush</t>
+  </si>
+  <si>
+    <t>Jackson Group</t>
+  </si>
+  <si>
+    <t>Hinton-Moss</t>
+  </si>
+  <si>
+    <t>Hardin, Fox and Doyle</t>
+  </si>
+  <si>
+    <t>Holmes PLC</t>
+  </si>
+  <si>
+    <t>Chapman-Brown</t>
+  </si>
+  <si>
+    <t>Caldwell Group</t>
+  </si>
+  <si>
+    <t>Murphy, Reyes and Wheeler</t>
+  </si>
+  <si>
+    <t>Kennedy-Rubio</t>
+  </si>
+  <si>
+    <t>Lindsey-Jimenez</t>
+  </si>
+  <si>
+    <t>Fox and Sons</t>
+  </si>
+  <si>
+    <t>Sweeney-Fields</t>
+  </si>
+  <si>
+    <t>Le Inc</t>
+  </si>
+  <si>
+    <t>Moore-Miller</t>
+  </si>
+  <si>
+    <t>Stewart-Guzman</t>
+  </si>
+  <si>
+    <t>Davis Group</t>
+  </si>
+  <si>
+    <t>Davis-Adams</t>
+  </si>
+  <si>
+    <t>White-Brown</t>
+  </si>
+  <si>
+    <t>Morgan Ltd</t>
+  </si>
+  <si>
+    <t>Ray, Cook and Avila</t>
+  </si>
+  <si>
+    <t>Parks, Jordan and Kelly</t>
+  </si>
+  <si>
+    <t>Rodriguez LLC</t>
+  </si>
+  <si>
+    <t>Garcia, Barber and Hernandez</t>
+  </si>
+  <si>
+    <t>Hardy Group</t>
+  </si>
+  <si>
+    <t>Mills Group</t>
+  </si>
+  <si>
+    <t>Tran-Caldwell</t>
+  </si>
+  <si>
+    <t>Jimenez-White</t>
+  </si>
+  <si>
+    <t>Hunt Ltd</t>
+  </si>
+  <si>
+    <t>Ayers, King and Lewis</t>
+  </si>
+  <si>
+    <t>Medina, Jackson and Hall</t>
+  </si>
+  <si>
+    <t>Alexander-Sexton</t>
+  </si>
+  <si>
+    <t>Weber-Gonzales</t>
+  </si>
+  <si>
+    <t>Fletcher Group</t>
+  </si>
+  <si>
+    <t>Cole-Spencer</t>
+  </si>
+  <si>
+    <t>Mccarty LLC</t>
+  </si>
+  <si>
+    <t>Johnson-Adams</t>
+  </si>
+  <si>
+    <t>Johnson LLC</t>
+  </si>
+  <si>
+    <t>Allen, Drake and Watts</t>
+  </si>
+  <si>
+    <t>Johnson-Fisher</t>
+  </si>
+  <si>
+    <t>Terry, Lucas and Miller</t>
+  </si>
+  <si>
+    <t>Golden-Stone</t>
+  </si>
+  <si>
+    <t>Oneal, Sandoval and Jenkins</t>
+  </si>
+  <si>
+    <t>Woods, King and Olson</t>
+  </si>
+  <si>
+    <t>Perry PLC</t>
+  </si>
+  <si>
+    <t>Dyer, Roberts and Bryant</t>
+  </si>
+  <si>
+    <t>Osborn, Christensen and Simpson</t>
+  </si>
+  <si>
+    <t>Lindsey-Daniel</t>
+  </si>
+  <si>
+    <t>Rodriguez-Wade</t>
+  </si>
+  <si>
+    <t>Ortega and Sons</t>
+  </si>
+  <si>
+    <t>Gross-Reyes</t>
+  </si>
+  <si>
+    <t>Meyer, Ferguson and Bernard</t>
+  </si>
+  <si>
+    <t>Rodriguez-Barnett</t>
+  </si>
+  <si>
+    <t>Roberson, Garcia and Haynes</t>
+  </si>
+  <si>
+    <t>Garcia-Nguyen</t>
+  </si>
+  <si>
+    <t>Burnett and Sons</t>
+  </si>
+  <si>
+    <t>Bailey, Scott and Pham</t>
+  </si>
+  <si>
+    <t>Paul, Edwards and Andrews</t>
+  </si>
+  <si>
+    <t>Mccall-Mccall</t>
+  </si>
+  <si>
+    <t>Neal-Rangel</t>
+  </si>
+  <si>
+    <t>Hoover, Potter and White</t>
+  </si>
+  <si>
+    <t>Harris-Nelson</t>
+  </si>
+  <si>
+    <t>Gonzales Inc</t>
+  </si>
+  <si>
+    <t>Holmes, Gallegos and Soto</t>
+  </si>
+  <si>
+    <t>Bennett-Wright</t>
+  </si>
+  <si>
+    <t>Duffy-Franklin</t>
+  </si>
+  <si>
+    <t>Barnes Ltd</t>
+  </si>
+  <si>
+    <t>Olson-Gomez</t>
+  </si>
+  <si>
+    <t>Ford, Moore and Russell</t>
+  </si>
+  <si>
+    <t>Thompson, Yoder and Harris</t>
+  </si>
+  <si>
+    <t>Mcdonald, Mercer and Patterson</t>
+  </si>
+  <si>
+    <t>Martin-Cook</t>
+  </si>
+  <si>
+    <t>Lopez, Jarvis and Hayes</t>
+  </si>
+  <si>
+    <t>Allen, Davila and Townsend</t>
+  </si>
+  <si>
+    <t>Mccoy Group</t>
+  </si>
+  <si>
+    <t>Sparks LLC</t>
+  </si>
+  <si>
+    <t>Rodriguez, Brown and Lopez</t>
+  </si>
+  <si>
+    <t>Dudley and Sons</t>
+  </si>
+  <si>
+    <t>Roberson, Rhodes and Ramos</t>
+  </si>
+  <si>
+    <t>Christensen-Thomas</t>
+  </si>
+  <si>
+    <t>Mcmahon Group</t>
+  </si>
+  <si>
+    <t>Lyons, Martin and Ryan</t>
+  </si>
+  <si>
+    <t>Montgomery-Kelly</t>
+  </si>
+  <si>
+    <t>Cole, Mckinney and Wilkins</t>
+  </si>
+  <si>
+    <t>Stevens Group</t>
+  </si>
+  <si>
+    <t>Doyle-Dixon</t>
+  </si>
+  <si>
+    <t>Wilson-Watts</t>
+  </si>
+  <si>
+    <t>Campbell-Henry</t>
+  </si>
+  <si>
+    <t>Smith Ltd</t>
+  </si>
+  <si>
+    <t>Ross, Warner and Nunez</t>
+  </si>
+  <si>
+    <t>Elliott, Williamson and Price</t>
+  </si>
+  <si>
+    <t>Reynolds-Spencer</t>
+  </si>
+  <si>
+    <t>Smith PLC</t>
+  </si>
+  <si>
+    <t>Garza-Parker</t>
+  </si>
+  <si>
+    <t>Simon, Miller and Walter</t>
+  </si>
+  <si>
+    <t>Hogan, Cisneros and Delgado</t>
+  </si>
+  <si>
+    <t>Gilbert-Malone</t>
+  </si>
+  <si>
+    <t>Olson-Eaton</t>
+  </si>
+  <si>
+    <t>Anderson-Jones</t>
+  </si>
+  <si>
+    <t>Chen and Sons</t>
+  </si>
+  <si>
+    <t>Joyce, Cannon and Martin</t>
   </si>
   <si>
     <t>Gomez PLC</t>
   </si>
   <si>
-    <t>Green-Summers</t>
-  </si>
-  <si>
-    <t>Walker-Hines</t>
-  </si>
-  <si>
-    <t>Gentry Inc</t>
-  </si>
-  <si>
-    <t>Murphy PLC</t>
-  </si>
-  <si>
-    <t>Clark PLC</t>
-  </si>
-  <si>
-    <t>Novak, Walter and Martin</t>
-  </si>
-  <si>
-    <t>Knight-Torres</t>
-  </si>
-  <si>
-    <t>Berger-Olsen</t>
-  </si>
-  <si>
-    <t>Williams-Murphy</t>
-  </si>
-  <si>
-    <t>Alvarado, Mejia and Perez</t>
-  </si>
-  <si>
-    <t>Larson Ltd</t>
-  </si>
-  <si>
-    <t>Chapman and Sons</t>
-  </si>
-  <si>
-    <t>Pratt, Jacobs and Garcia</t>
-  </si>
-  <si>
-    <t>Gilbert-Reed</t>
-  </si>
-  <si>
-    <t>Bennett Group</t>
-  </si>
-  <si>
-    <t>Logan Inc</t>
-  </si>
-  <si>
-    <t>Harrison, Miller and Mosley</t>
-  </si>
-  <si>
-    <t>Gordon Inc</t>
-  </si>
-  <si>
-    <t>Parker Inc</t>
-  </si>
-  <si>
-    <t>Lowery, Rodriguez and Dougherty</t>
-  </si>
-  <si>
-    <t>Knight, Jackson and Martin</t>
-  </si>
-  <si>
-    <t>Saunders Ltd</t>
-  </si>
-  <si>
-    <t>Moore-Cooper</t>
-  </si>
-  <si>
-    <t>Watts, Evans and Duncan</t>
-  </si>
-  <si>
-    <t>Sellers, Bryant and Miller</t>
-  </si>
-  <si>
-    <t>Hart PLC</t>
-  </si>
-  <si>
-    <t>Higgins-Day</t>
-  </si>
-  <si>
-    <t>Houston, Johnson and Williams</t>
-  </si>
-  <si>
-    <t>Stephens, Clark and Serrano</t>
-  </si>
-  <si>
-    <t>Snyder Group</t>
-  </si>
-  <si>
-    <t>Wolfe, Kennedy and Hooper</t>
-  </si>
-  <si>
-    <t>Butler LLC</t>
-  </si>
-  <si>
-    <t>Montgomery PLC</t>
-  </si>
-  <si>
-    <t>Ballard LLC</t>
-  </si>
-  <si>
-    <t>Morse, Lowe and Mejia</t>
-  </si>
-  <si>
-    <t>Rodriguez, Brown and Mcclure</t>
-  </si>
-  <si>
-    <t>Mckee Inc</t>
-  </si>
-  <si>
-    <t>Brooks Inc</t>
-  </si>
-  <si>
-    <t>Smith Ltd</t>
-  </si>
-  <si>
-    <t>Knapp Inc</t>
-  </si>
-  <si>
-    <t>Campos-Smith</t>
-  </si>
-  <si>
-    <t>Carey Ltd</t>
-  </si>
-  <si>
-    <t>Harrington LLC</t>
-  </si>
-  <si>
-    <t>Lewis PLC</t>
-  </si>
-  <si>
-    <t>Davis, Moore and Gray</t>
-  </si>
-  <si>
-    <t>Rosales Inc</t>
-  </si>
-  <si>
-    <t>Young PLC</t>
-  </si>
-  <si>
-    <t>Martinez, Price and Johnson</t>
-  </si>
-  <si>
-    <t>Porter Inc</t>
-  </si>
-  <si>
-    <t>Coleman-Kent</t>
-  </si>
-  <si>
-    <t>Clark-Hobbs</t>
-  </si>
-  <si>
-    <t>Dawson-Chavez</t>
-  </si>
-  <si>
-    <t>White and Sons</t>
-  </si>
-  <si>
-    <t>Garner Ltd</t>
-  </si>
-  <si>
-    <t>Knapp LLC</t>
-  </si>
-  <si>
-    <t>Wheeler-Moore</t>
-  </si>
-  <si>
-    <t>Romero PLC</t>
-  </si>
-  <si>
-    <t>Sullivan Group</t>
-  </si>
-  <si>
-    <t>Nixon-Thomas</t>
-  </si>
-  <si>
-    <t>Oliver Ltd</t>
-  </si>
-  <si>
-    <t>Holland LLC</t>
-  </si>
-  <si>
-    <t>Mclaughlin, Salinas and Stone</t>
-  </si>
-  <si>
-    <t>Bird, Giles and Flowers</t>
-  </si>
-  <si>
-    <t>Harvey PLC</t>
-  </si>
-  <si>
-    <t>Ramirez PLC</t>
-  </si>
-  <si>
-    <t>Cook, Nixon and Foster</t>
-  </si>
-  <si>
-    <t>Boyd, Rodriguez and Johnson</t>
-  </si>
-  <si>
-    <t>Hill Ltd</t>
-  </si>
-  <si>
-    <t>Daniel, Ramsey and Norton</t>
-  </si>
-  <si>
-    <t>Stephenson and Sons</t>
-  </si>
-  <si>
-    <t>Hernandez, Palmer and Moore</t>
-  </si>
-  <si>
-    <t>Marquez Ltd</t>
-  </si>
-  <si>
-    <t>Carter-Harmon</t>
-  </si>
-  <si>
-    <t>Collins-Schneider</t>
-  </si>
-  <si>
-    <t>Porter-Wu</t>
-  </si>
-  <si>
-    <t>Patrick-Gilmore</t>
-  </si>
-  <si>
-    <t>White PLC</t>
-  </si>
-  <si>
-    <t>Dunn and Sons</t>
-  </si>
-  <si>
-    <t>Zhang PLC</t>
-  </si>
-  <si>
-    <t>Riley Group</t>
-  </si>
-  <si>
-    <t>Rojas-Griffin</t>
-  </si>
-  <si>
-    <t>Wagner, Garcia and Jackson</t>
-  </si>
-  <si>
-    <t>Hoffman, Cook and Martinez</t>
-  </si>
-  <si>
-    <t>Cross, Simpson and Miles</t>
-  </si>
-  <si>
-    <t>Lee-Curtis</t>
-  </si>
-  <si>
-    <t>Price, Gonzalez and Turner</t>
-  </si>
-  <si>
-    <t>Porter, Anderson and Morris</t>
-  </si>
-  <si>
-    <t>Mason-Shepherd</t>
-  </si>
-  <si>
-    <t>Atkins Inc</t>
-  </si>
-  <si>
-    <t>Oneill Group</t>
-  </si>
-  <si>
-    <t>Patterson Inc</t>
-  </si>
-  <si>
-    <t>Williams LLC</t>
-  </si>
-  <si>
-    <t>Ayers-Watkins</t>
-  </si>
-  <si>
-    <t>Reed Inc</t>
-  </si>
-  <si>
-    <t>Dunlap PLC</t>
-  </si>
-  <si>
-    <t>Harris, Hoover and Rodriguez</t>
-  </si>
-  <si>
-    <t>Noble, Johnson and Mendez</t>
-  </si>
-  <si>
-    <t>Walker and Sons</t>
-  </si>
-  <si>
-    <t>Martin, Ballard and Patel</t>
-  </si>
-  <si>
-    <t>Weaver, Carpenter and Johnson</t>
-  </si>
-  <si>
-    <t>Martin PLC</t>
-  </si>
-  <si>
-    <t>Jones-Gonzalez</t>
-  </si>
-  <si>
-    <t>Smith, Wyatt and Jones</t>
-  </si>
-  <si>
-    <t>Perry, Alvarado and Cook</t>
-  </si>
-  <si>
-    <t>Yoder-Abbott</t>
-  </si>
-  <si>
-    <t>Le-Barnes</t>
-  </si>
-  <si>
-    <t>Munoz Inc</t>
-  </si>
-  <si>
-    <t>Nielsen, Ross and Parsons</t>
-  </si>
-  <si>
-    <t>Martin-Fitzgerald</t>
-  </si>
-  <si>
-    <t>Howard, Ramirez and Williams</t>
-  </si>
-  <si>
-    <t>Dawson, Arias and Chapman</t>
-  </si>
-  <si>
-    <t>Fernandez, Hoover and Lawson</t>
-  </si>
-  <si>
-    <t>Singh PLC</t>
-  </si>
-  <si>
-    <t>Barker, Spencer and Wilson</t>
-  </si>
-  <si>
-    <t>Wolf Ltd</t>
-  </si>
-  <si>
-    <t>Lee PLC</t>
-  </si>
-  <si>
-    <t>Warren-Wallace</t>
-  </si>
-  <si>
-    <t>Clarke-Shields</t>
-  </si>
-  <si>
-    <t>Wiggins, Hernandez and Hernandez</t>
-  </si>
-  <si>
-    <t>Parks and Sons</t>
-  </si>
-  <si>
-    <t>Sutton Ltd</t>
-  </si>
-  <si>
-    <t>Wilcox, Beltran and Parker</t>
-  </si>
-  <si>
-    <t>Hall Group</t>
-  </si>
-  <si>
-    <t>Perez Group</t>
-  </si>
-  <si>
-    <t>Phillips-Smith</t>
-  </si>
-  <si>
-    <t>Sanchez, Huang and Howard</t>
-  </si>
-  <si>
-    <t>Cuevas-Anderson</t>
-  </si>
-  <si>
-    <t>Boyd-Johnson</t>
-  </si>
-  <si>
-    <t>Li and Sons</t>
-  </si>
-  <si>
-    <t>Bates LLC</t>
-  </si>
-  <si>
-    <t>Strong, Barr and Stanton</t>
-  </si>
-  <si>
-    <t>Barajas-Hernandez</t>
-  </si>
-  <si>
-    <t>Freeman-Campbell</t>
-  </si>
-  <si>
-    <t>Barnett PLC</t>
-  </si>
-  <si>
-    <t>Brown, Hester and Stevens</t>
-  </si>
-  <si>
-    <t>Baker, Vaughan and Williams</t>
-  </si>
-  <si>
-    <t>Mitchell Inc</t>
-  </si>
-  <si>
-    <t>Rodriguez PLC</t>
-  </si>
-  <si>
-    <t>Walker-Bailey</t>
-  </si>
-  <si>
-    <t>Avila-Mathews</t>
-  </si>
-  <si>
-    <t>Adams, Lopez and Banks</t>
-  </si>
-  <si>
-    <t>Taylor, Robinson and Thomas</t>
-  </si>
-  <si>
-    <t>Keith, Warren and Graham</t>
-  </si>
-  <si>
-    <t>Rhodes, Brown and Haynes</t>
-  </si>
-  <si>
-    <t>Hall, Johnson and Gillespie</t>
-  </si>
-  <si>
-    <t>Avila LLC</t>
-  </si>
-  <si>
-    <t>Garcia, Williams and Shaw</t>
-  </si>
-  <si>
-    <t>Martin-Vasquez</t>
-  </si>
-  <si>
-    <t>Dennis, Chung and West</t>
-  </si>
-  <si>
-    <t>Stevens-Walton</t>
-  </si>
-  <si>
-    <t>Miranda-Smith</t>
-  </si>
-  <si>
-    <t>Collins Ltd</t>
-  </si>
-  <si>
-    <t>Hooper-Wallace</t>
-  </si>
-  <si>
-    <t>Small Inc</t>
-  </si>
-  <si>
-    <t>Gutierrez, Ball and Conley</t>
-  </si>
-  <si>
-    <t>Payne-Wilson</t>
-  </si>
-  <si>
-    <t>Martin, Morris and Calderon</t>
-  </si>
-  <si>
-    <t>Conner-Castro</t>
-  </si>
-  <si>
-    <t>Prince, Robinson and Sims</t>
-  </si>
-  <si>
-    <t>Swanson, Dean and Lowe</t>
-  </si>
-  <si>
-    <t>Hart Group</t>
-  </si>
-  <si>
-    <t>Miller-Jenkins</t>
-  </si>
-  <si>
-    <t>Cobb, Grant and Hall</t>
-  </si>
-  <si>
-    <t>Gonzalez PLC</t>
-  </si>
-  <si>
-    <t>Vega Inc</t>
-  </si>
-  <si>
-    <t>Alvarez PLC</t>
-  </si>
-  <si>
-    <t>Patel PLC</t>
-  </si>
-  <si>
-    <t>Booth-Roth</t>
-  </si>
-  <si>
-    <t>Olson-Hensley</t>
-  </si>
-  <si>
-    <t>Gardner Group</t>
-  </si>
-  <si>
-    <t>Wong-Wagner</t>
-  </si>
-  <si>
-    <t>Hernandez-Parker</t>
-  </si>
-  <si>
-    <t>Smith Group</t>
-  </si>
-  <si>
-    <t>Pratt Ltd</t>
-  </si>
-  <si>
-    <t>Sweeney-Nash</t>
-  </si>
-  <si>
-    <t>Solis, Martinez and Haynes</t>
-  </si>
-  <si>
-    <t>Armstrong LLC</t>
-  </si>
-  <si>
-    <t>Mills, Reilly and Gibson</t>
-  </si>
-  <si>
-    <t>Berger-Taylor</t>
-  </si>
-  <si>
-    <t>Wolf, Roberts and Fields</t>
-  </si>
-  <si>
-    <t>Wood Group</t>
-  </si>
-  <si>
-    <t>Leesville Junior High School</t>
-  </si>
-  <si>
-    <t>Paramount Park Middle</t>
-  </si>
-  <si>
-    <t>East Middle School</t>
-  </si>
-  <si>
-    <t>Vidalia High School</t>
-  </si>
-  <si>
-    <t>NEW YORK CITY GEOGRAPHIC DISTRICT #17</t>
-  </si>
-  <si>
-    <t>San Mateo-Foster City</t>
-  </si>
-  <si>
-    <t>Louis Harris</t>
-  </si>
-  <si>
-    <t>Jamie Wilson</t>
-  </si>
-  <si>
-    <t>Steven Adams</t>
-  </si>
-  <si>
-    <t>Crystal Clark</t>
-  </si>
-  <si>
-    <t>Melissa Pruitt</t>
-  </si>
-  <si>
-    <t>Christine Scott</t>
-  </si>
-  <si>
-    <t>Jessica Johnson</t>
-  </si>
-  <si>
-    <t>Kimberly Kerr</t>
-  </si>
-  <si>
-    <t>Scott Reyes</t>
-  </si>
-  <si>
-    <t>Gabriel Glenn</t>
-  </si>
-  <si>
-    <t>Alfred Munoz</t>
-  </si>
-  <si>
-    <t>Jackson Gomez</t>
-  </si>
-  <si>
-    <t>Dr. Patrick Thompson</t>
-  </si>
-  <si>
-    <t>Eric Hawkins</t>
-  </si>
-  <si>
-    <t>Whitney Reeves</t>
-  </si>
-  <si>
-    <t>David Burton</t>
-  </si>
-  <si>
-    <t>Scott Lewis</t>
-  </si>
-  <si>
-    <t>Melissa Ballard</t>
-  </si>
-  <si>
-    <t>Sarah Anderson</t>
-  </si>
-  <si>
-    <t>Laura Morgan</t>
-  </si>
-  <si>
-    <t>Kimberly Allen</t>
-  </si>
-  <si>
-    <t>Christian James</t>
-  </si>
-  <si>
-    <t>Monica Robinson</t>
-  </si>
-  <si>
-    <t>Angelica Donaldson</t>
-  </si>
-  <si>
-    <t>Mark Green</t>
-  </si>
-  <si>
-    <t>Corey Cruz</t>
-  </si>
-  <si>
-    <t>Jason Miller</t>
-  </si>
-  <si>
-    <t>Jay Duncan</t>
-  </si>
-  <si>
-    <t>Rachel Lester</t>
-  </si>
-  <si>
-    <t>Louis.Harris@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jamie.Wilson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Steven.Adams@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Crystal.Clark@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Melissa.Pruitt@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Christine.Scott@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jessica.Johnson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Kimberly.Kerr@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Scott.Reyes@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Gabriel.Glenn@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Alfred.Munoz@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jackson.Gomez@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Dr.Patrick.Thompson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Eric.Hawkins@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Whitney.Reeves@fake_domain.com</t>
-  </si>
-  <si>
-    <t>David.Burton@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Scott.Lewis@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Melissa.Ballard@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Sarah.Anderson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Laura.Morgan@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Kimberly.Allen@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Christian.James@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Monica.Robinson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Angelica.Donaldson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Mark.Green@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Corey.Cruz@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jason.Miller@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jay.Duncan@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Rachel.Lester@fake_domain.com</t>
+    <t>Fox-Kirby</t>
+  </si>
+  <si>
+    <t>Jackson-Warner</t>
+  </si>
+  <si>
+    <t>Dixon Group</t>
+  </si>
+  <si>
+    <t>Miller, Franco and King</t>
+  </si>
+  <si>
+    <t>Lozano, Huffman and Young</t>
+  </si>
+  <si>
+    <t>Walker-Thompson</t>
+  </si>
+  <si>
+    <t>Roberts-Morgan</t>
+  </si>
+  <si>
+    <t>James-Reynolds</t>
+  </si>
+  <si>
+    <t>Gallegos-Wolfe</t>
+  </si>
+  <si>
+    <t>Ortiz-Smith</t>
+  </si>
+  <si>
+    <t>Cervantes-Keller</t>
+  </si>
+  <si>
+    <t>Sullivan PLC</t>
+  </si>
+  <si>
+    <t>Walker-Bell</t>
+  </si>
+  <si>
+    <t>Brown-Hahn</t>
+  </si>
+  <si>
+    <t>Hogan, Bennett and Marsh</t>
+  </si>
+  <si>
+    <t>Malone Group</t>
+  </si>
+  <si>
+    <t>Hernandez Ltd</t>
+  </si>
+  <si>
+    <t>Leonard, Ramirez and Sutton</t>
+  </si>
+  <si>
+    <t>Hoffman, Liu and Carter</t>
+  </si>
+  <si>
+    <t>Alvarez LLC</t>
+  </si>
+  <si>
+    <t>Fox LLC</t>
+  </si>
+  <si>
+    <t>Brooks-Gonzalez</t>
+  </si>
+  <si>
+    <t>Jones, Robertson and Willis</t>
+  </si>
+  <si>
+    <t>Martinez Inc</t>
+  </si>
+  <si>
+    <t>Navarro, Yates and Lewis</t>
+  </si>
+  <si>
+    <t>Hernandez-Huerta</t>
+  </si>
+  <si>
+    <t>Butler, Hoover and Scott</t>
+  </si>
+  <si>
+    <t>Smith-Velasquez</t>
+  </si>
+  <si>
+    <t>Mills PLC</t>
+  </si>
+  <si>
+    <t>Sexton Inc</t>
+  </si>
+  <si>
+    <t>Gray-Medina</t>
+  </si>
+  <si>
+    <t>Allen-Jones</t>
+  </si>
+  <si>
+    <t>Buchanan, Guzman and Lewis</t>
+  </si>
+  <si>
+    <t>Burgess LLC</t>
+  </si>
+  <si>
+    <t>Franco-Bell</t>
+  </si>
+  <si>
+    <t>King PLC</t>
+  </si>
+  <si>
+    <t>Bennett-Lee</t>
+  </si>
+  <si>
+    <t>Colon, Arias and Nelson</t>
+  </si>
+  <si>
+    <t>Martin-Ramos</t>
+  </si>
+  <si>
+    <t>Wright, Reyes and Johnson</t>
+  </si>
+  <si>
+    <t>Howell-Smith</t>
+  </si>
+  <si>
+    <t>West Elementary School</t>
+  </si>
+  <si>
+    <t>Brier Creek Elementary</t>
+  </si>
+  <si>
+    <t>INES MARIA MENDOZA DE MUNOZ MARIN</t>
+  </si>
+  <si>
+    <t>HIGHPOINT</t>
+  </si>
+  <si>
+    <t>PASCO</t>
+  </si>
+  <si>
+    <t>TEMPLE ISD</t>
+  </si>
+  <si>
+    <t>Laurie Robinson</t>
+  </si>
+  <si>
+    <t>David Brock</t>
+  </si>
+  <si>
+    <t>Danielle Smith</t>
+  </si>
+  <si>
+    <t>Allison Alexander</t>
+  </si>
+  <si>
+    <t>Monique Young</t>
+  </si>
+  <si>
+    <t>Michael Dalton</t>
+  </si>
+  <si>
+    <t>Bruce Mcdonald</t>
+  </si>
+  <si>
+    <t>Ashley Barnes</t>
+  </si>
+  <si>
+    <t>Miguel Jacobson</t>
+  </si>
+  <si>
+    <t>Reginald Barker</t>
+  </si>
+  <si>
+    <t>Omar Vang</t>
+  </si>
+  <si>
+    <t>Angela Roach</t>
+  </si>
+  <si>
+    <t>Daisy Diaz</t>
+  </si>
+  <si>
+    <t>Krista Lyons</t>
+  </si>
+  <si>
+    <t>Krystal Alexander DDS</t>
+  </si>
+  <si>
+    <t>Robert Farmer</t>
+  </si>
+  <si>
+    <t>Eric Sanchez</t>
+  </si>
+  <si>
+    <t>Stephanie Taylor</t>
+  </si>
+  <si>
+    <t>Timothy Smith</t>
+  </si>
+  <si>
+    <t>Cameron Stone</t>
+  </si>
+  <si>
+    <t>Marissa Lucas</t>
+  </si>
+  <si>
+    <t>Joshua Guerrero</t>
+  </si>
+  <si>
+    <t>Daniel Wood</t>
+  </si>
+  <si>
+    <t>Jacob Walker</t>
+  </si>
+  <si>
+    <t>Ashley Davis</t>
+  </si>
+  <si>
+    <t>Jason Monroe</t>
+  </si>
+  <si>
+    <t>Joshua James</t>
+  </si>
+  <si>
+    <t>Heather Vasquez</t>
+  </si>
+  <si>
+    <t>Kristine Haney</t>
+  </si>
+  <si>
+    <t>Laurie.Robinson@fake_domain.com</t>
+  </si>
+  <si>
+    <t>David.Brock@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Danielle.Smith@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Allison.Alexander@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Monique.Young@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Michael.Dalton@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Bruce.Mcdonald@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Ashley.Barnes@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Miguel.Jacobson@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Reginald.Barker@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Omar.Vang@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Angela.Roach@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Daisy.Diaz@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Krista.Lyons@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Krystal.Alexander.DDS@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Robert.Farmer@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Eric.Sanchez@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Stephanie.Taylor@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Timothy.Smith@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Cameron.Stone@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Marissa.Lucas@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Joshua.Guerrero@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Daniel.Wood@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jacob.Walker@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Ashley.Davis@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jason.Monroe@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Joshua.James@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Heather.Vasquez@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Kristine.Haney@fake_domain.com</t>
   </si>
   <si>
     <t>09-02-2022</t>
@@ -1033,736 +1033,736 @@
     <t>Family Consumer Science</t>
   </si>
   <si>
-    <t>24914 Christopher Dale Suite 002</t>
-  </si>
-  <si>
-    <t>796 Joseph Gardens</t>
-  </si>
-  <si>
-    <t>451 Campbell Bridge Apt. 493</t>
-  </si>
-  <si>
-    <t>578 Eric Terrace</t>
-  </si>
-  <si>
-    <t>021 Clark Fork</t>
-  </si>
-  <si>
-    <t>38700 Steven Well</t>
-  </si>
-  <si>
-    <t>40324 Christensen Extension</t>
-  </si>
-  <si>
-    <t>431 Kimberly Land</t>
-  </si>
-  <si>
-    <t>3555 Morgan Garden Apt. 114</t>
-  </si>
-  <si>
-    <t>00906 Brown Valleys</t>
-  </si>
-  <si>
-    <t>5627 Bonilla Meadows Suite 040</t>
-  </si>
-  <si>
-    <t>099 Whitney Shoals Suite 583</t>
-  </si>
-  <si>
-    <t>77843 Baker Plains</t>
-  </si>
-  <si>
-    <t>1815 Hayes Ville</t>
-  </si>
-  <si>
-    <t>221 Wilson Drives</t>
-  </si>
-  <si>
-    <t>276 Powell Walk</t>
-  </si>
-  <si>
-    <t>74901 Nichols Wall Apt. 434</t>
-  </si>
-  <si>
-    <t>962 Larry Vista</t>
-  </si>
-  <si>
-    <t>8019 Cole Brook Apt. 247</t>
-  </si>
-  <si>
-    <t>204 Evan Pine Apt. 767</t>
-  </si>
-  <si>
-    <t>5988 Jennifer Passage Suite 173</t>
-  </si>
-  <si>
-    <t>344 Fisher Canyon</t>
-  </si>
-  <si>
-    <t>222 Dominique Passage</t>
-  </si>
-  <si>
-    <t>69280 Timothy Spring</t>
-  </si>
-  <si>
-    <t>617 Kurt Springs</t>
-  </si>
-  <si>
-    <t>202 Alex Row Suite 308</t>
-  </si>
-  <si>
-    <t>242 Michael Freeway Apt. 746</t>
-  </si>
-  <si>
-    <t>449 Norris Ways Suite 834</t>
-  </si>
-  <si>
-    <t>936 Callahan Wells Apt. 049</t>
-  </si>
-  <si>
-    <t>93045 John Roads</t>
-  </si>
-  <si>
-    <t>4159 Hood Tunnel Suite 817</t>
-  </si>
-  <si>
-    <t>85411 Simpson Estate</t>
-  </si>
-  <si>
-    <t>96024 Patricia Wall</t>
-  </si>
-  <si>
-    <t>0544 Valerie Track</t>
-  </si>
-  <si>
-    <t>288 Elizabeth Forges Apt. 914</t>
-  </si>
-  <si>
-    <t>82648 Traci Ridges</t>
-  </si>
-  <si>
-    <t>65009 Smith Passage Apt. 137</t>
-  </si>
-  <si>
-    <t>4344 Randy Walks</t>
-  </si>
-  <si>
-    <t>30756 Timothy Drive</t>
-  </si>
-  <si>
-    <t>2007 Smith Course</t>
-  </si>
-  <si>
-    <t>7574 Collins Island</t>
-  </si>
-  <si>
-    <t>878 Parker Alley Apt. 318</t>
-  </si>
-  <si>
-    <t>8043 Pierce Keys Apt. 977</t>
-  </si>
-  <si>
-    <t>4760 Robert Spring</t>
-  </si>
-  <si>
-    <t>2325 Anthony Plaza</t>
-  </si>
-  <si>
-    <t>88353 Palmer Crest Apt. 619</t>
-  </si>
-  <si>
-    <t>2705 Ford Station</t>
-  </si>
-  <si>
-    <t>9224 William Estates Suite 342</t>
-  </si>
-  <si>
-    <t>311 Craig Corners</t>
-  </si>
-  <si>
-    <t>4029 Levine Port</t>
-  </si>
-  <si>
-    <t>069 David Shoals Suite 109</t>
-  </si>
-  <si>
-    <t>342 James Port Suite 150</t>
-  </si>
-  <si>
-    <t>250 Carter Cape Suite 882</t>
-  </si>
-  <si>
-    <t>8579 Waller Falls</t>
-  </si>
-  <si>
-    <t>04928 Nichols Forge</t>
-  </si>
-  <si>
-    <t>8873 Elizabeth Branch Apt. 953</t>
-  </si>
-  <si>
-    <t>7648 Klein Route Apt. 782</t>
-  </si>
-  <si>
-    <t>7583 Valencia Lakes Apt. 839</t>
-  </si>
-  <si>
-    <t>836 Jacqueline Road</t>
-  </si>
-  <si>
-    <t>6276 Hart Spur</t>
-  </si>
-  <si>
-    <t>427 Miller Coves</t>
-  </si>
-  <si>
-    <t>74670 Nicole Camp Apt. 278</t>
-  </si>
-  <si>
-    <t>08742 Stephen Valley Apt. 707</t>
-  </si>
-  <si>
-    <t>1752 Joseph Turnpike</t>
-  </si>
-  <si>
-    <t>43164 Carpenter Junctions Apt. 658</t>
-  </si>
-  <si>
-    <t>27131 Moore Parkway Suite 069</t>
-  </si>
-  <si>
-    <t>07336 Derek Expressway</t>
-  </si>
-  <si>
-    <t>068 Hines Inlet</t>
-  </si>
-  <si>
-    <t>218 Nielsen Walk Suite 770</t>
-  </si>
-  <si>
-    <t>00666 Wyatt Locks Apt. 635</t>
-  </si>
-  <si>
-    <t>83510 Holden Drive Apt. 568</t>
-  </si>
-  <si>
-    <t>71434 Mays Camp</t>
-  </si>
-  <si>
-    <t>8251 Campbell Vista Suite 405</t>
-  </si>
-  <si>
-    <t>69298 Moore Inlet Apt. 824</t>
-  </si>
-  <si>
-    <t>604 Damon Estates Suite 054</t>
-  </si>
-  <si>
-    <t>1294 Duffy Springs Suite 997</t>
-  </si>
-  <si>
-    <t>1324 Alejandro Run</t>
-  </si>
-  <si>
-    <t>5231 Price Estate</t>
-  </si>
-  <si>
-    <t>8253 Reilly Falls Apt. 704</t>
-  </si>
-  <si>
-    <t>86226 Johnston Path</t>
-  </si>
-  <si>
-    <t>34010 Burns Well Suite 207</t>
-  </si>
-  <si>
-    <t>6631 William Common</t>
-  </si>
-  <si>
-    <t>371 Jonathan Lodge</t>
-  </si>
-  <si>
-    <t>2604 Colleen Knolls</t>
-  </si>
-  <si>
-    <t>2638 Ortiz Hills Suite 178</t>
-  </si>
-  <si>
-    <t>63341 Shannon Well</t>
-  </si>
-  <si>
-    <t>0750 Sharon Drive</t>
-  </si>
-  <si>
-    <t>5134 Garcia Orchard</t>
-  </si>
-  <si>
-    <t>909 Price Forest</t>
-  </si>
-  <si>
-    <t>3821 Francisco Inlet Apt. 792</t>
-  </si>
-  <si>
-    <t>41882 Mays Underpass</t>
-  </si>
-  <si>
-    <t>894 Wu Island Apt. 248</t>
-  </si>
-  <si>
-    <t>11841 Mary Light Apt. 449</t>
-  </si>
-  <si>
-    <t>848 Galvan Drive</t>
-  </si>
-  <si>
-    <t>3100 West Club</t>
-  </si>
-  <si>
-    <t>96381 Rogers Junctions Apt. 502</t>
-  </si>
-  <si>
-    <t>6418 Kemp Drive Apt. 186</t>
-  </si>
-  <si>
-    <t>33044 Erickson Prairie</t>
-  </si>
-  <si>
-    <t>051 Franco Mill Suite 894</t>
-  </si>
-  <si>
-    <t>4784 Welch Field Apt. 709</t>
-  </si>
-  <si>
-    <t>163 Gibbs Turnpike Suite 984</t>
-  </si>
-  <si>
-    <t>0971 Tyler Roads</t>
-  </si>
-  <si>
-    <t>363 Sandra Flat Apt. 217</t>
-  </si>
-  <si>
-    <t>612 Rickey Harbors Apt. 010</t>
-  </si>
-  <si>
-    <t>8361 Solis Rapids</t>
-  </si>
-  <si>
-    <t>88175 Mitchell Track</t>
-  </si>
-  <si>
-    <t>69852 Tamara Burgs</t>
-  </si>
-  <si>
-    <t>920 Nichole Radial</t>
-  </si>
-  <si>
-    <t>4020 Morales Harbors Apt. 466</t>
-  </si>
-  <si>
-    <t>1991 Rogers Mountains Suite 368</t>
-  </si>
-  <si>
-    <t>6515 Robert Trafficway</t>
-  </si>
-  <si>
-    <t>067 Taylor Courts Apt. 383</t>
-  </si>
-  <si>
-    <t>62154 Jennifer Fords</t>
-  </si>
-  <si>
-    <t>15898 Sheri Extension Apt. 184</t>
-  </si>
-  <si>
-    <t>7660 Hodge Neck</t>
-  </si>
-  <si>
-    <t>2682 Gutierrez Brooks Suite 913</t>
-  </si>
-  <si>
-    <t>1997 Carey Keys Suite 582</t>
-  </si>
-  <si>
-    <t>7413 Thompson Light Apt. 956</t>
-  </si>
-  <si>
-    <t>7103 Francisco Way Apt. 572</t>
-  </si>
-  <si>
-    <t>4362 Gabrielle Creek</t>
-  </si>
-  <si>
-    <t>1535 Russell Estate Apt. 198</t>
-  </si>
-  <si>
-    <t>99075 Hayes Mountain</t>
-  </si>
-  <si>
-    <t>955 Torres Point</t>
-  </si>
-  <si>
-    <t>8200 Newman Radial</t>
-  </si>
-  <si>
-    <t>8292 Lisa Mill</t>
-  </si>
-  <si>
-    <t>4569 Smith Lights Apt. 129</t>
-  </si>
-  <si>
-    <t>145 Kim Fords Apt. 274</t>
-  </si>
-  <si>
-    <t>18959 Martinez Squares Apt. 167</t>
-  </si>
-  <si>
-    <t>8740 Hogan Shore Apt. 639</t>
-  </si>
-  <si>
-    <t>062 Peterson Shoals</t>
-  </si>
-  <si>
-    <t>1156 Lindsey Highway</t>
-  </si>
-  <si>
-    <t>6660 Kimberly Union Apt. 483</t>
-  </si>
-  <si>
-    <t>49927 Douglas Pine</t>
-  </si>
-  <si>
-    <t>377 Whitehead Pines Apt. 956</t>
-  </si>
-  <si>
-    <t>87819 Ryan Station</t>
-  </si>
-  <si>
-    <t>30125 Lucas Corners</t>
-  </si>
-  <si>
-    <t>32134 Meyers Spurs</t>
-  </si>
-  <si>
-    <t>2561 Scott Manor</t>
-  </si>
-  <si>
-    <t>513 Booth Estate Apt. 057</t>
-  </si>
-  <si>
-    <t>000 Adrian Fort Apt. 459</t>
-  </si>
-  <si>
-    <t>351 Megan Haven Suite 730</t>
-  </si>
-  <si>
-    <t>57351 Smith Circles</t>
-  </si>
-  <si>
-    <t>4612 Rivera Pine Apt. 104</t>
-  </si>
-  <si>
-    <t>008 John Harbor</t>
-  </si>
-  <si>
-    <t>3552 Mary Alley Suite 728</t>
-  </si>
-  <si>
-    <t>02003 Nicolas Mission</t>
-  </si>
-  <si>
-    <t>062 David Loaf</t>
-  </si>
-  <si>
-    <t>5717 Kara Well Suite 598</t>
-  </si>
-  <si>
-    <t>44180 Scott River</t>
-  </si>
-  <si>
-    <t>4601 Owens Freeway</t>
-  </si>
-  <si>
-    <t>3437 Debra Row Apt. 575</t>
-  </si>
-  <si>
-    <t>0486 Walker Center Suite 893</t>
-  </si>
-  <si>
-    <t>37434 Andrew Square</t>
-  </si>
-  <si>
-    <t>7730 Brown Spur Suite 626</t>
-  </si>
-  <si>
-    <t>228 Susan Skyway Suite 284</t>
-  </si>
-  <si>
-    <t>706 Anderson Square Suite 833</t>
-  </si>
-  <si>
-    <t>816 Michael Forks</t>
-  </si>
-  <si>
-    <t>36910 Clark Views</t>
-  </si>
-  <si>
-    <t>236 Russell Hills Apt. 651</t>
-  </si>
-  <si>
-    <t>113 Donna Glen Apt. 550</t>
-  </si>
-  <si>
-    <t>53651 Miller Isle</t>
-  </si>
-  <si>
-    <t>027 Allen View Apt. 573</t>
-  </si>
-  <si>
-    <t>60770 Nicole Ports</t>
-  </si>
-  <si>
-    <t>3010 Erica Camp</t>
-  </si>
-  <si>
-    <t>9079 Moreno Glen</t>
-  </si>
-  <si>
-    <t>55199 Castaneda Bypass</t>
-  </si>
-  <si>
-    <t>0836 Rachel Islands Apt. 971</t>
-  </si>
-  <si>
-    <t>79389 Anderson Walks</t>
-  </si>
-  <si>
-    <t>34044 Andrew Spur Suite 104</t>
-  </si>
-  <si>
-    <t>147 Miller Vista</t>
-  </si>
-  <si>
-    <t>14004 Ralph Mountain</t>
-  </si>
-  <si>
-    <t>757 Frazier Road</t>
-  </si>
-  <si>
-    <t>65303 Kayla Ranch Apt. 104</t>
-  </si>
-  <si>
-    <t>260 Morales Throughway Suite 244</t>
-  </si>
-  <si>
-    <t>20422 Timothy Burgs</t>
-  </si>
-  <si>
-    <t>35093 Erin Street</t>
-  </si>
-  <si>
-    <t>1669 Flores Crossing</t>
-  </si>
-  <si>
-    <t>02058 Hill Walks</t>
-  </si>
-  <si>
-    <t>40672 Henry Pine Suite 699</t>
-  </si>
-  <si>
-    <t>93341 Jamie Hill Apt. 875</t>
-  </si>
-  <si>
-    <t>89919 Ana Neck Suite 936</t>
-  </si>
-  <si>
-    <t>2955 Young Estate Suite 344</t>
-  </si>
-  <si>
-    <t>64920 Katie Shores Suite 290</t>
-  </si>
-  <si>
-    <t>12254 Chung Coves</t>
-  </si>
-  <si>
-    <t>45840 Berry Row</t>
-  </si>
-  <si>
-    <t>621 Walker Coves Suite 812</t>
-  </si>
-  <si>
-    <t>54997 Graham Mountains Suite 636</t>
-  </si>
-  <si>
-    <t>1537 Caroline Hill</t>
-  </si>
-  <si>
-    <t>910 David Walks</t>
-  </si>
-  <si>
-    <t>75065 Miller Centers</t>
-  </si>
-  <si>
-    <t>711 Andres Tunnel Suite 534</t>
-  </si>
-  <si>
-    <t>1852 Bell Village Suite 644</t>
-  </si>
-  <si>
-    <t>227 Dyer Square</t>
-  </si>
-  <si>
-    <t>314 Kathleen Fall</t>
-  </si>
-  <si>
-    <t>80020 Kenneth Manors Apt. 032</t>
-  </si>
-  <si>
-    <t>086 Ayers Lodge Apt. 679</t>
-  </si>
-  <si>
-    <t>23071 Donovan Villages</t>
-  </si>
-  <si>
-    <t>2042 Ann Keys</t>
-  </si>
-  <si>
-    <t>590 Aguilar Mission</t>
-  </si>
-  <si>
-    <t>88632 James Union</t>
-  </si>
-  <si>
-    <t>38293 Michael Branch</t>
-  </si>
-  <si>
-    <t>687 Ryan Motorway Apt. 361</t>
-  </si>
-  <si>
-    <t>4621 Wendy Groves</t>
-  </si>
-  <si>
-    <t>8252 Kimberly Crossing Suite 532</t>
-  </si>
-  <si>
-    <t>5446 Clarke Branch</t>
-  </si>
-  <si>
-    <t>27752 John Port Suite 379</t>
-  </si>
-  <si>
-    <t>2780 Wright Ford</t>
-  </si>
-  <si>
-    <t>378 Estrada Stream Suite 335</t>
-  </si>
-  <si>
-    <t>7644 Anthony Views</t>
-  </si>
-  <si>
-    <t>85834 Harvey Corner</t>
-  </si>
-  <si>
-    <t>833 Hansen Ville</t>
-  </si>
-  <si>
-    <t>78203 Harold Mountains</t>
-  </si>
-  <si>
-    <t>6440 Ashley Common</t>
-  </si>
-  <si>
-    <t>980 Erin Glen</t>
-  </si>
-  <si>
-    <t>37978 Douglas Ville</t>
-  </si>
-  <si>
-    <t>56479 Lori Path Apt. 686</t>
-  </si>
-  <si>
-    <t>60159 Steven Squares Apt. 451</t>
-  </si>
-  <si>
-    <t>87773 Stewart Crescent</t>
-  </si>
-  <si>
-    <t>6454 Alexander Ridges</t>
-  </si>
-  <si>
-    <t>544 Becker River Suite 487</t>
-  </si>
-  <si>
-    <t>95166 Moyer Corners Apt. 771</t>
-  </si>
-  <si>
-    <t>0880 Eric Meadows Suite 754</t>
-  </si>
-  <si>
-    <t>451 Hensley Fields</t>
-  </si>
-  <si>
-    <t>35078 Johnson Views Apt. 150</t>
-  </si>
-  <si>
-    <t>245 Jessica Drives Suite 795</t>
-  </si>
-  <si>
-    <t>10768 Robert Trail</t>
-  </si>
-  <si>
-    <t>127 William Isle Apt. 217</t>
-  </si>
-  <si>
-    <t>52322 Erickson Crescent</t>
-  </si>
-  <si>
-    <t>053 Mcdowell Club Apt. 020</t>
-  </si>
-  <si>
-    <t>364 Bowers Forges</t>
-  </si>
-  <si>
-    <t>17338 Morales Wells</t>
-  </si>
-  <si>
-    <t>1730 Price Crossroad</t>
-  </si>
-  <si>
-    <t>717 Benjamin Squares</t>
-  </si>
-  <si>
-    <t>077 David Streets Apt. 975</t>
-  </si>
-  <si>
-    <t>203 Evan Pass</t>
-  </si>
-  <si>
-    <t>50189 Kevin Shores Apt. 106</t>
-  </si>
-  <si>
-    <t>12611 Alexis Pass</t>
-  </si>
-  <si>
-    <t>4215 Molly Burg</t>
-  </si>
-  <si>
-    <t>5809 Sheila Route</t>
-  </si>
-  <si>
-    <t>04917 Cruz Neck</t>
-  </si>
-  <si>
-    <t>7463 Emily Land Suite 385</t>
-  </si>
-  <si>
-    <t>65891 Baker Knoll</t>
-  </si>
-  <si>
-    <t>3721 Thompson Ferry Apt. 030</t>
-  </si>
-  <si>
-    <t>512 Carlson Parks Apt. 968</t>
+    <t>01844 Simmons Court Suite 759</t>
+  </si>
+  <si>
+    <t>219 David Fork Suite 720</t>
+  </si>
+  <si>
+    <t>99551 Paul Fork</t>
+  </si>
+  <si>
+    <t>39302 Rios Lock Suite 294</t>
+  </si>
+  <si>
+    <t>069 Patterson Stream</t>
+  </si>
+  <si>
+    <t>4583 Bolton Plaza</t>
+  </si>
+  <si>
+    <t>773 Valdez Center</t>
+  </si>
+  <si>
+    <t>70314 David Ford Apt. 625</t>
+  </si>
+  <si>
+    <t>65993 Kimberly Centers</t>
+  </si>
+  <si>
+    <t>7821 Maddox Light</t>
+  </si>
+  <si>
+    <t>9761 Kelly Extensions Suite 136</t>
+  </si>
+  <si>
+    <t>88866 Olson Orchard Suite 920</t>
+  </si>
+  <si>
+    <t>42490 Rivera Mission</t>
+  </si>
+  <si>
+    <t>7777 Andrea Stream Suite 910</t>
+  </si>
+  <si>
+    <t>431 Joseph Track</t>
+  </si>
+  <si>
+    <t>23107 Johnson Haven Apt. 911</t>
+  </si>
+  <si>
+    <t>83369 House Walks Apt. 455</t>
+  </si>
+  <si>
+    <t>7114 Schmidt Landing</t>
+  </si>
+  <si>
+    <t>74029 Gray Valleys Suite 918</t>
+  </si>
+  <si>
+    <t>901 Diaz Views</t>
+  </si>
+  <si>
+    <t>9657 Smith Well Suite 544</t>
+  </si>
+  <si>
+    <t>7902 Courtney Estate Apt. 186</t>
+  </si>
+  <si>
+    <t>10189 Schneider Gateway</t>
+  </si>
+  <si>
+    <t>18243 Corey Vista Suite 402</t>
+  </si>
+  <si>
+    <t>997 Lisa Overpass Suite 283</t>
+  </si>
+  <si>
+    <t>1754 Davila Square</t>
+  </si>
+  <si>
+    <t>8896 Phillip Field</t>
+  </si>
+  <si>
+    <t>8270 Gonzales Square</t>
+  </si>
+  <si>
+    <t>78570 Conner Island</t>
+  </si>
+  <si>
+    <t>71125 Jones Run</t>
+  </si>
+  <si>
+    <t>0934 Brown Stravenue</t>
+  </si>
+  <si>
+    <t>7038 Oscar Alley Apt. 559</t>
+  </si>
+  <si>
+    <t>561 Joshua Locks</t>
+  </si>
+  <si>
+    <t>255 Welch Common</t>
+  </si>
+  <si>
+    <t>534 Christina Mission Suite 812</t>
+  </si>
+  <si>
+    <t>7074 Adam Garden Suite 306</t>
+  </si>
+  <si>
+    <t>51428 Berg Mission Suite 658</t>
+  </si>
+  <si>
+    <t>68363 Martin Cliff Suite 783</t>
+  </si>
+  <si>
+    <t>388 Donald Row Apt. 565</t>
+  </si>
+  <si>
+    <t>849 Tonya Shore Suite 242</t>
+  </si>
+  <si>
+    <t>0768 Martinez Hills Apt. 760</t>
+  </si>
+  <si>
+    <t>465 Marcus Lake</t>
+  </si>
+  <si>
+    <t>3014 Mitchell Garden Apt. 875</t>
+  </si>
+  <si>
+    <t>12162 Hamilton Hill</t>
+  </si>
+  <si>
+    <t>44736 Rodney Stravenue Suite 147</t>
+  </si>
+  <si>
+    <t>2324 Clarke Cliffs Suite 738</t>
+  </si>
+  <si>
+    <t>6976 Young Drives Suite 066</t>
+  </si>
+  <si>
+    <t>54221 Rachel Parkways Apt. 683</t>
+  </si>
+  <si>
+    <t>713 Bradley Crest</t>
+  </si>
+  <si>
+    <t>2516 Julie Lodge</t>
+  </si>
+  <si>
+    <t>49016 Carol Corner Suite 243</t>
+  </si>
+  <si>
+    <t>4639 Gibson Camp</t>
+  </si>
+  <si>
+    <t>7269 Shannon Circle Apt. 411</t>
+  </si>
+  <si>
+    <t>5635 Michael Branch</t>
+  </si>
+  <si>
+    <t>376 Joshua Alley Suite 715</t>
+  </si>
+  <si>
+    <t>599 Love Expressway Suite 999</t>
+  </si>
+  <si>
+    <t>0168 Randall Points</t>
+  </si>
+  <si>
+    <t>691 Welch Fork Apt. 297</t>
+  </si>
+  <si>
+    <t>382 Vincent Village</t>
+  </si>
+  <si>
+    <t>8145 Day Road Apt. 332</t>
+  </si>
+  <si>
+    <t>438 Williams Cape</t>
+  </si>
+  <si>
+    <t>9935 Earl Stravenue</t>
+  </si>
+  <si>
+    <t>6100 Stevens Road Suite 777</t>
+  </si>
+  <si>
+    <t>12719 Christopher View Apt. 206</t>
+  </si>
+  <si>
+    <t>013 Williams Coves Suite 120</t>
+  </si>
+  <si>
+    <t>5046 Moore Neck</t>
+  </si>
+  <si>
+    <t>053 Fleming Corners</t>
+  </si>
+  <si>
+    <t>489 Lawson Station Suite 917</t>
+  </si>
+  <si>
+    <t>76353 Walsh Common Apt. 139</t>
+  </si>
+  <si>
+    <t>525 Malone Parkway Apt. 335</t>
+  </si>
+  <si>
+    <t>8210 Sanders Centers</t>
+  </si>
+  <si>
+    <t>5303 Ochoa Lake</t>
+  </si>
+  <si>
+    <t>407 Brian Falls Suite 704</t>
+  </si>
+  <si>
+    <t>961 Brown Place</t>
+  </si>
+  <si>
+    <t>8141 Luis Parkway</t>
+  </si>
+  <si>
+    <t>4874 Salazar Gardens</t>
+  </si>
+  <si>
+    <t>22800 Parker Loop</t>
+  </si>
+  <si>
+    <t>08310 Eric Keys</t>
+  </si>
+  <si>
+    <t>842 Joel Crescent Suite 369</t>
+  </si>
+  <si>
+    <t>000 Johnson Villages Apt. 658</t>
+  </si>
+  <si>
+    <t>1052 Elizabeth Drive Apt. 585</t>
+  </si>
+  <si>
+    <t>6359 Wilson Branch</t>
+  </si>
+  <si>
+    <t>175 Benitez Plain</t>
+  </si>
+  <si>
+    <t>2466 Julie Groves Suite 704</t>
+  </si>
+  <si>
+    <t>609 Salas Lodge</t>
+  </si>
+  <si>
+    <t>7796 Knight Lights</t>
+  </si>
+  <si>
+    <t>63753 Gonzales Valley Suite 165</t>
+  </si>
+  <si>
+    <t>328 Schultz Walks Apt. 443</t>
+  </si>
+  <si>
+    <t>25542 Tracy Islands Apt. 061</t>
+  </si>
+  <si>
+    <t>593 Anthony Shoals Apt. 043</t>
+  </si>
+  <si>
+    <t>79208 Richards Hills Suite 870</t>
+  </si>
+  <si>
+    <t>2656 Kevin Creek</t>
+  </si>
+  <si>
+    <t>4636 Jennifer Mountains</t>
+  </si>
+  <si>
+    <t>1689 Denise Mountain Suite 218</t>
+  </si>
+  <si>
+    <t>597 Ryan Wells</t>
+  </si>
+  <si>
+    <t>065 Crystal Courts</t>
+  </si>
+  <si>
+    <t>4374 Jackson Fields</t>
+  </si>
+  <si>
+    <t>7712 Mercer Vista</t>
+  </si>
+  <si>
+    <t>47031 Ortiz Islands</t>
+  </si>
+  <si>
+    <t>038 Wright Valleys</t>
+  </si>
+  <si>
+    <t>303 Jessica Dam Suite 907</t>
+  </si>
+  <si>
+    <t>902 Mendoza Loop Suite 751</t>
+  </si>
+  <si>
+    <t>1286 Garcia Cliff Apt. 346</t>
+  </si>
+  <si>
+    <t>50589 Stanley Union</t>
+  </si>
+  <si>
+    <t>012 Amy Overpass Apt. 708</t>
+  </si>
+  <si>
+    <t>520 Katrina Mount</t>
+  </si>
+  <si>
+    <t>2929 Meredith Pike</t>
+  </si>
+  <si>
+    <t>79266 Madeline Fort Suite 829</t>
+  </si>
+  <si>
+    <t>969 Lamb Ville Suite 156</t>
+  </si>
+  <si>
+    <t>633 Long Run Apt. 655</t>
+  </si>
+  <si>
+    <t>22758 Pittman Drive</t>
+  </si>
+  <si>
+    <t>01022 Kenneth Isle</t>
+  </si>
+  <si>
+    <t>0864 Kelly Station</t>
+  </si>
+  <si>
+    <t>3917 Clark Inlet</t>
+  </si>
+  <si>
+    <t>56549 Gregory Pass Suite 515</t>
+  </si>
+  <si>
+    <t>7340 Ward Crest</t>
+  </si>
+  <si>
+    <t>289 Reese Greens Apt. 935</t>
+  </si>
+  <si>
+    <t>95987 Lynch Brooks Suite 961</t>
+  </si>
+  <si>
+    <t>73809 Kimberly Pines Apt. 485</t>
+  </si>
+  <si>
+    <t>7083 Morrison Plain</t>
+  </si>
+  <si>
+    <t>214 Derek Camp</t>
+  </si>
+  <si>
+    <t>339 Johnson Freeway</t>
+  </si>
+  <si>
+    <t>414 Amy Trail Apt. 700</t>
+  </si>
+  <si>
+    <t>352 Munoz Roads</t>
+  </si>
+  <si>
+    <t>789 Merritt Branch Suite 510</t>
+  </si>
+  <si>
+    <t>4477 Sheila Throughway</t>
+  </si>
+  <si>
+    <t>15986 Cynthia Oval</t>
+  </si>
+  <si>
+    <t>6517 Christopher Hills</t>
+  </si>
+  <si>
+    <t>92595 Sanchez Ports Suite 913</t>
+  </si>
+  <si>
+    <t>31495 Brown Lodge Apt. 569</t>
+  </si>
+  <si>
+    <t>883 Emily Loop Apt. 134</t>
+  </si>
+  <si>
+    <t>2503 Sandra Stream Apt. 693</t>
+  </si>
+  <si>
+    <t>075 Campbell Road</t>
+  </si>
+  <si>
+    <t>853 Thomas Place Apt. 288</t>
+  </si>
+  <si>
+    <t>02127 Snyder Summit</t>
+  </si>
+  <si>
+    <t>235 Michael Rapids</t>
+  </si>
+  <si>
+    <t>245 Brandon Drive Apt. 717</t>
+  </si>
+  <si>
+    <t>44014 Neil Manors Suite 330</t>
+  </si>
+  <si>
+    <t>028 Pedro Hollow Apt. 867</t>
+  </si>
+  <si>
+    <t>88829 Heather Common</t>
+  </si>
+  <si>
+    <t>3300 Mclaughlin Point</t>
+  </si>
+  <si>
+    <t>74502 Smith Hollow Suite 065</t>
+  </si>
+  <si>
+    <t>38405 Hunt Drive Suite 689</t>
+  </si>
+  <si>
+    <t>28460 Harvey Glen</t>
+  </si>
+  <si>
+    <t>848 Foley Mills Suite 944</t>
+  </si>
+  <si>
+    <t>511 Charles Pine Suite 305</t>
+  </si>
+  <si>
+    <t>879 Walker Center Suite 557</t>
+  </si>
+  <si>
+    <t>639 Hanson Views Apt. 112</t>
+  </si>
+  <si>
+    <t>8665 Ashley Mountain</t>
+  </si>
+  <si>
+    <t>2864 Obrien Manor</t>
+  </si>
+  <si>
+    <t>7352 Hansen Via Suite 457</t>
+  </si>
+  <si>
+    <t>370 Tiffany View Apt. 279</t>
+  </si>
+  <si>
+    <t>388 Griffin Ports Apt. 849</t>
+  </si>
+  <si>
+    <t>983 Lopez Oval Apt. 071</t>
+  </si>
+  <si>
+    <t>874 Maria Ridges</t>
+  </si>
+  <si>
+    <t>261 Watson Forge</t>
+  </si>
+  <si>
+    <t>455 Newton Roads</t>
+  </si>
+  <si>
+    <t>61753 Nathaniel Lock</t>
+  </si>
+  <si>
+    <t>22352 Christensen Viaduct</t>
+  </si>
+  <si>
+    <t>6313 David Locks Apt. 737</t>
+  </si>
+  <si>
+    <t>97123 Torres Union Suite 771</t>
+  </si>
+  <si>
+    <t>511 Dennis Street Suite 801</t>
+  </si>
+  <si>
+    <t>2359 Hoffman Ranch</t>
+  </si>
+  <si>
+    <t>2728 Joshua Union Suite 386</t>
+  </si>
+  <si>
+    <t>681 Harvey Drive</t>
+  </si>
+  <si>
+    <t>8071 Griffith Valleys Suite 475</t>
+  </si>
+  <si>
+    <t>0994 Sharon Drive Apt. 888</t>
+  </si>
+  <si>
+    <t>64408 Chavez Plaza</t>
+  </si>
+  <si>
+    <t>60038 William Hollow Apt. 767</t>
+  </si>
+  <si>
+    <t>744 Dillon Extension Suite 035</t>
+  </si>
+  <si>
+    <t>613 Jillian Lakes Suite 588</t>
+  </si>
+  <si>
+    <t>84435 Ashley Viaduct Suite 174</t>
+  </si>
+  <si>
+    <t>60110 York Route Suite 834</t>
+  </si>
+  <si>
+    <t>9034 Eric Brooks</t>
+  </si>
+  <si>
+    <t>3480 Joseph Run Suite 215</t>
+  </si>
+  <si>
+    <t>316 Kimberly Via Apt. 978</t>
+  </si>
+  <si>
+    <t>07045 Alexander Walk</t>
+  </si>
+  <si>
+    <t>24944 Gregory Lodge Suite 944</t>
+  </si>
+  <si>
+    <t>9595 Kathy Run Suite 784</t>
+  </si>
+  <si>
+    <t>07497 Rachel Prairie</t>
+  </si>
+  <si>
+    <t>235 Kimberly Wall Apt. 103</t>
+  </si>
+  <si>
+    <t>919 Emily Tunnel Apt. 866</t>
+  </si>
+  <si>
+    <t>7346 Stanley Grove</t>
+  </si>
+  <si>
+    <t>81833 Wright Run</t>
+  </si>
+  <si>
+    <t>705 Phyllis Island</t>
+  </si>
+  <si>
+    <t>512 Erika Drive Suite 214</t>
+  </si>
+  <si>
+    <t>05192 Barber Valley Apt. 614</t>
+  </si>
+  <si>
+    <t>5787 Gregory Tunnel Apt. 347</t>
+  </si>
+  <si>
+    <t>041 Sharon Vista</t>
+  </si>
+  <si>
+    <t>8985 Olson Pass</t>
+  </si>
+  <si>
+    <t>069 Myers Walks Apt. 134</t>
+  </si>
+  <si>
+    <t>041 Michael Mountains</t>
+  </si>
+  <si>
+    <t>21303 Daniel Grove</t>
+  </si>
+  <si>
+    <t>47609 David Springs</t>
+  </si>
+  <si>
+    <t>997 Randolph Branch</t>
+  </si>
+  <si>
+    <t>27284 William Spring</t>
+  </si>
+  <si>
+    <t>489 Jones Ports</t>
+  </si>
+  <si>
+    <t>625 Johnson Fields</t>
+  </si>
+  <si>
+    <t>4305 Kevin Glens Apt. 496</t>
+  </si>
+  <si>
+    <t>3723 Danielle Estate Suite 794</t>
+  </si>
+  <si>
+    <t>25121 Samantha Shore</t>
+  </si>
+  <si>
+    <t>393 Freeman Viaduct Apt. 799</t>
+  </si>
+  <si>
+    <t>9719 Morgan Drive</t>
+  </si>
+  <si>
+    <t>42472 Carter Freeway</t>
+  </si>
+  <si>
+    <t>759 Janet Corners</t>
+  </si>
+  <si>
+    <t>3378 Courtney Union</t>
+  </si>
+  <si>
+    <t>940 Jessica Highway</t>
+  </si>
+  <si>
+    <t>84251 King Bypass Suite 847</t>
+  </si>
+  <si>
+    <t>165 Alyssa Center Apt. 888</t>
+  </si>
+  <si>
+    <t>31411 Johnathan Pines</t>
+  </si>
+  <si>
+    <t>09376 Keith Lights</t>
+  </si>
+  <si>
+    <t>6495 Lori Parkway Apt. 044</t>
+  </si>
+  <si>
+    <t>715 Michael Vista Suite 779</t>
+  </si>
+  <si>
+    <t>250 Micheal Turnpike Apt. 822</t>
+  </si>
+  <si>
+    <t>06622 Reed Loop Suite 154</t>
+  </si>
+  <si>
+    <t>9403 Ross Plains Apt. 972</t>
+  </si>
+  <si>
+    <t>852 William Mount</t>
+  </si>
+  <si>
+    <t>1943 Noah Square Apt. 011</t>
+  </si>
+  <si>
+    <t>25524 Stone Greens Suite 631</t>
+  </si>
+  <si>
+    <t>39238 Stanley Lights</t>
+  </si>
+  <si>
+    <t>584 Nancy Dale Apt. 738</t>
+  </si>
+  <si>
+    <t>160 Hannah Trail</t>
+  </si>
+  <si>
+    <t>069 Small Islands Suite 609</t>
+  </si>
+  <si>
+    <t>0348 Perez Haven Suite 985</t>
+  </si>
+  <si>
+    <t>85070 Shaw Highway Apt. 979</t>
+  </si>
+  <si>
+    <t>4952 Heather Mission</t>
+  </si>
+  <si>
+    <t>7888 Lori Village</t>
+  </si>
+  <si>
+    <t>812 Simon Tunnel Apt. 296</t>
+  </si>
+  <si>
+    <t>3777 Wang Underpass Apt. 015</t>
+  </si>
+  <si>
+    <t>1215 Teresa Branch Suite 581</t>
+  </si>
+  <si>
+    <t>09162 Keller Mission</t>
+  </si>
+  <si>
+    <t>64265 Burch Alley</t>
+  </si>
+  <si>
+    <t>874 Robert Mountains Suite 040</t>
+  </si>
+  <si>
+    <t>540 Amanda Avenue</t>
+  </si>
+  <si>
+    <t>407 Misty Stravenue Suite 952</t>
+  </si>
+  <si>
+    <t>465 Pace Isle Suite 102</t>
+  </si>
+  <si>
+    <t>9860 Henson Views</t>
+  </si>
+  <si>
+    <t>8170 Clark Fords</t>
+  </si>
+  <si>
+    <t>894 Lori Valleys Suite 262</t>
+  </si>
+  <si>
+    <t>08738 Summer Rapid Apt. 254</t>
+  </si>
+  <si>
+    <t>872 Gentry Locks</t>
+  </si>
+  <si>
+    <t>029 Neal Plains Suite 223</t>
+  </si>
+  <si>
+    <t>274 Erin Pines Apt. 518</t>
+  </si>
+  <si>
+    <t>8643 Lopez Parks Suite 766</t>
   </si>
   <si>
     <t>Springfield</t>
@@ -2820,12 +2820,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
@@ -7368,7 +7368,7 @@
         <v>141239</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="C132" t="s">
         <v>254</v>
@@ -7403,7 +7403,7 @@
         <v>141292</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C133" t="s">
         <v>254</v>
@@ -7438,7 +7438,7 @@
         <v>141354</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C134" t="s">
         <v>254</v>
@@ -7473,7 +7473,7 @@
         <v>141359</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C135" t="s">
         <v>265</v>
@@ -7508,7 +7508,7 @@
         <v>141382</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C136" t="s">
         <v>254</v>
@@ -7543,7 +7543,7 @@
         <v>141384</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C137" t="s">
         <v>254</v>
@@ -7578,7 +7578,7 @@
         <v>141410</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C138" t="s">
         <v>254</v>
@@ -7613,7 +7613,7 @@
         <v>141413</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C139" t="s">
         <v>254</v>
@@ -7648,7 +7648,7 @@
         <v>141414</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C140" t="s">
         <v>254</v>
@@ -7683,7 +7683,7 @@
         <v>141416</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C141" t="s">
         <v>254</v>
@@ -7718,7 +7718,7 @@
         <v>141417</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C142" t="s">
         <v>254</v>
@@ -7753,7 +7753,7 @@
         <v>141418</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C143" t="s">
         <v>254</v>
@@ -7788,7 +7788,7 @@
         <v>141421</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
         <v>254</v>
@@ -7823,7 +7823,7 @@
         <v>141422</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C145" t="s">
         <v>254</v>
@@ -7858,7 +7858,7 @@
         <v>141424</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C146" t="s">
         <v>254</v>
@@ -7893,7 +7893,7 @@
         <v>141429</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C147" t="s">
         <v>254</v>
@@ -7928,7 +7928,7 @@
         <v>141438</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
         <v>266</v>
@@ -7963,7 +7963,7 @@
         <v>141457</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C149" t="s">
         <v>266</v>
@@ -7995,7 +7995,7 @@
         <v>141464</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C150" t="s">
         <v>266</v>
@@ -8027,7 +8027,7 @@
         <v>141468</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C151" t="s">
         <v>254</v>
@@ -8062,7 +8062,7 @@
         <v>141487</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C152" t="s">
         <v>254</v>
@@ -8097,7 +8097,7 @@
         <v>141534</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C153" t="s">
         <v>254</v>
@@ -8132,7 +8132,7 @@
         <v>141535</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C154" t="s">
         <v>254</v>
@@ -8167,7 +8167,7 @@
         <v>141536</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C155" t="s">
         <v>254</v>
@@ -8202,7 +8202,7 @@
         <v>141546</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C156" t="s">
         <v>254</v>
@@ -8237,7 +8237,7 @@
         <v>141547</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C157" t="s">
         <v>254</v>
@@ -8272,7 +8272,7 @@
         <v>141548</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C158" t="s">
         <v>254</v>
@@ -8307,7 +8307,7 @@
         <v>141551</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C159" t="s">
         <v>254</v>
@@ -8342,7 +8342,7 @@
         <v>141553</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C160" t="s">
         <v>254</v>
@@ -8377,7 +8377,7 @@
         <v>141554</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C161" t="s">
         <v>254</v>
@@ -8412,7 +8412,7 @@
         <v>141557</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
         <v>254</v>
@@ -8447,7 +8447,7 @@
         <v>141562</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C163" t="s">
         <v>267</v>
@@ -8479,7 +8479,7 @@
         <v>141575</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C164" t="s">
         <v>254</v>
@@ -8514,7 +8514,7 @@
         <v>141580</v>
       </c>
       <c r="B165" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C165" t="s">
         <v>254</v>
@@ -8549,7 +8549,7 @@
         <v>141581</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C166" t="s">
         <v>254</v>
@@ -8584,7 +8584,7 @@
         <v>141587</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
         <v>268</v>
@@ -8619,7 +8619,7 @@
         <v>141598</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C168" t="s">
         <v>254</v>
@@ -8654,7 +8654,7 @@
         <v>141600</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
         <v>254</v>
@@ -8689,7 +8689,7 @@
         <v>141601</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C170" t="s">
         <v>268</v>
@@ -8721,7 +8721,7 @@
         <v>141604</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
         <v>254</v>
@@ -8756,7 +8756,7 @@
         <v>141607</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
         <v>254</v>
@@ -8791,7 +8791,7 @@
         <v>141618</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
         <v>269</v>
@@ -8820,7 +8820,7 @@
         <v>141632</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C174" t="s">
         <v>254</v>
@@ -8855,7 +8855,7 @@
         <v>141668</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C175" t="s">
         <v>270</v>
@@ -8890,7 +8890,7 @@
         <v>141669</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C176" t="s">
         <v>270</v>
@@ -8925,7 +8925,7 @@
         <v>141692</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C177" t="s">
         <v>271</v>
@@ -8957,7 +8957,7 @@
         <v>141698</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C178" t="s">
         <v>272</v>
@@ -8989,7 +8989,7 @@
         <v>141705</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C179" t="s">
         <v>254</v>
@@ -9024,7 +9024,7 @@
         <v>141707</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="C180" t="s">
         <v>254</v>
